--- a/medicine/Sexualité et sexologie/Écosexe/Écosexe.xlsx
+++ b/medicine/Sexualité et sexologie/Écosexe/Écosexe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cosexe</t>
+          <t>Écosexe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écosexe ou écosexualité est un ensemble de pratiques sexuelles et amoureuses consistant à prendre la nature pour amante.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cosexe</t>
+          <t>Écosexe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2008, Annie Sprinkle, militante féministe pro-sexe et ex-actrice pornographique, et sa compagne Elizabeth Stephens, présentent des performances lors desquelles elles se marient symboliquement à des éléments naturels : à la terre en Californie, puis à la mer à Venise, aux pierres à Barcelone, au charbon à Gijon[1],[2]…
-Quelques mois plus tard, elles publient sur Internet un « manifeste de l'écosexe[3] » qui débute par ces mots : « La Terre est notre amante. Nous sommes follement, passionnément, intensément amoureuses et amoureux, et nous sommes chaque jour reconnaissants pour cette relation[4],[5]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, Annie Sprinkle, militante féministe pro-sexe et ex-actrice pornographique, et sa compagne Elizabeth Stephens, présentent des performances lors desquelles elles se marient symboliquement à des éléments naturels : à la terre en Californie, puis à la mer à Venise, aux pierres à Barcelone, au charbon à Gijon,…
+Quelques mois plus tard, elles publient sur Internet un « manifeste de l'écosexe » qui débute par ces mots : « La Terre est notre amante. Nous sommes follement, passionnément, intensément amoureuses et amoureux, et nous sommes chaque jour reconnaissants pour cette relation,. »
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cosexe</t>
+          <t>Écosexe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juin 2023, un spectacle inspiré de l'écosexe présenté à Lyon devant des enfants, l'année précédente, fait polémique[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2023, un spectacle inspiré de l'écosexe présenté à Lyon devant des enfants, l'année précédente, fait polémique.
 </t>
         </is>
       </c>
